--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-742655.3667100768</v>
+        <v>-745475.4388080887</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13595137.15085022</v>
+        <v>13601790.65580355</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>86.20833028372692</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>66.67731766039434</v>
+        <v>146.0708552215996</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>45.06001345337942</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>121.3782985928481</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>6.676504577498874</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>40.14798388422833</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,14 +902,14 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
+        <v>263.7138800015061</v>
+      </c>
+      <c r="G5" t="n">
         <v>232.2791855053265</v>
       </c>
-      <c r="G5" t="n">
-        <v>263.7138800015062</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.8984032951949</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,7 +990,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>28.47839549524644</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,22 +1060,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>83.04635011693925</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>78.61849805672364</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>9.991123614402589</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>142.5375742161623</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>24.5527601906376</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>63.98442596939233</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.0532651913544</v>
+        <v>410.0306836655088</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.4823806282826</v>
       </c>
       <c r="I11" t="n">
-        <v>8.095607807851877</v>
+        <v>7.225033532690844</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.39771900809346</v>
+        <v>88.88314248788886</v>
       </c>
       <c r="T11" t="n">
-        <v>200.1162844667815</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.925695121934</v>
+        <v>250.9238885998664</v>
       </c>
       <c r="V11" t="n">
-        <v>298.5831549022646</v>
+        <v>241.3401898314694</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.5348018533689</v>
+        <v>134.5227196718753</v>
       </c>
       <c r="H12" t="n">
-        <v>85.10916742828846</v>
+        <v>84.99247899123098</v>
       </c>
       <c r="I12" t="n">
-        <v>2.818804639222122</v>
+        <v>2.402817250075373</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>119.512516116208</v>
+        <v>119.2880948941652</v>
       </c>
       <c r="T12" t="n">
-        <v>188.8436349678719</v>
+        <v>188.7949352977285</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7565981790115</v>
+        <v>225.7558032986501</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>92.77756599253524</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6362467935498</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>84.33262917360773</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>70.96060265360374</v>
       </c>
       <c r="S13" t="n">
-        <v>182.9800314285129</v>
+        <v>182.8035054403132</v>
       </c>
       <c r="T13" t="n">
-        <v>217.8844593782158</v>
+        <v>217.8411796627991</v>
       </c>
       <c r="U13" t="n">
-        <v>255.8250016961333</v>
+        <v>286.1900368913996</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>262.5006410649893</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.3135037226523</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>63.38272884730902</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>139.3687739767484</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>153.5842618151918</v>
       </c>
       <c r="D22" t="n">
-        <v>1.043911798777973</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,10 +2327,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>23.62554568141267</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060383</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569544</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656052</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.294096136280117</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652662</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,22 +3901,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002294</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445519</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.7894056603332</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C2" t="n">
-        <v>367.7894056603332</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4117490931552</v>
+        <v>168.6434288057766</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4117490931552</v>
+        <v>168.6434288057766</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946892</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275112</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275112</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y2" t="n">
-        <v>367.7894056603332</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>554.1464335214268</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="C3" t="n">
-        <v>554.1464335214268</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="D3" t="n">
-        <v>508.6312684170032</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>808.3837902496284</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="V3" t="n">
-        <v>808.3837902496284</v>
+        <v>704.1153320298602</v>
       </c>
       <c r="W3" t="n">
-        <v>554.1464335214268</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="X3" t="n">
-        <v>554.1464335214268</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="Y3" t="n">
-        <v>554.1464335214268</v>
+        <v>449.8779753016586</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335.0192762988438</v>
+        <v>478.3919716935039</v>
       </c>
       <c r="C4" t="n">
-        <v>328.2753322811682</v>
+        <v>478.3919716935039</v>
       </c>
       <c r="D4" t="n">
         <v>328.2753322811682</v>
@@ -4483,10 +4483,10 @@
         <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640391</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U4" t="n">
-        <v>563.0088271968611</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V4" t="n">
-        <v>563.0088271968611</v>
+        <v>660.0404365237437</v>
       </c>
       <c r="W4" t="n">
-        <v>563.0088271968611</v>
+        <v>660.0404365237437</v>
       </c>
       <c r="X4" t="n">
-        <v>335.0192762988438</v>
+        <v>660.0404365237437</v>
       </c>
       <c r="Y4" t="n">
-        <v>335.0192762988438</v>
+        <v>660.0404365237437</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E5" t="n">
         <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672985</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917556</v>
@@ -4571,16 +4571,16 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4604,13 +4604,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388467</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>888.137410662113</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="C6" t="n">
-        <v>713.684381380986</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="D6" t="n">
         <v>564.7499717197347</v>
@@ -4638,28 +4638,28 @@
         <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4677,19 +4677,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1007.75358015701</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>772.6014719252676</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>772.6014719252676</v>
       </c>
       <c r="X6" t="n">
-        <v>1036.519636212815</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="Y6" t="n">
-        <v>1036.519636212815</v>
+        <v>564.7499717197347</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.2726599955957</v>
+        <v>438.8927561299996</v>
       </c>
       <c r="C7" t="n">
-        <v>488.2726599955957</v>
+        <v>438.8927561299996</v>
       </c>
       <c r="D7" t="n">
-        <v>338.15602058326</v>
+        <v>288.7761167176639</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2429270008668</v>
+        <v>288.7761167176639</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008668</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008668</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="V7" t="n">
-        <v>975.4428957063039</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="W7" t="n">
-        <v>709.0652391391259</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="X7" t="n">
-        <v>709.0652391391259</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="Y7" t="n">
-        <v>488.2726599955957</v>
+        <v>438.8927561299996</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360222</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.63763941981</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.37194081306</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148155</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>261.597783425208</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424344</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="9">
@@ -4878,34 +4878,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>833.9149192343714</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1611.645352205167</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.96086399928</v>
+        <v>1282.697049275919</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.543693962319</v>
+        <v>1282.697049275919</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1054.707498377901</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>833.9149192343714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2034.065714563141</v>
+        <v>2322.080260198762</v>
       </c>
       <c r="C11" t="n">
-        <v>1665.10319762273</v>
+        <v>1953.11774325835</v>
       </c>
       <c r="D11" t="n">
-        <v>1306.837499015979</v>
+        <v>1594.8520446516</v>
       </c>
       <c r="E11" t="n">
-        <v>921.049246417735</v>
+        <v>1209.063792053356</v>
       </c>
       <c r="F11" t="n">
-        <v>510.0633416281275</v>
+        <v>798.0778872637482</v>
       </c>
       <c r="G11" t="n">
-        <v>95.86812426312311</v>
+        <v>383.9054795208099</v>
       </c>
       <c r="H11" t="n">
-        <v>95.86812426312311</v>
+        <v>95.53943848214055</v>
       </c>
       <c r="I11" t="n">
-        <v>87.6907426390303</v>
+        <v>88.24142481275587</v>
       </c>
       <c r="J11" t="n">
-        <v>349.5422747816853</v>
+        <v>351.9903699468537</v>
       </c>
       <c r="K11" t="n">
-        <v>792.7283617022078</v>
+        <v>798.0201870879714</v>
       </c>
       <c r="L11" t="n">
-        <v>1379.441653579587</v>
+        <v>1388.261377763826</v>
       </c>
       <c r="M11" t="n">
-        <v>2063.942675785907</v>
+        <v>2076.687867136774</v>
       </c>
       <c r="N11" t="n">
-        <v>2764.133448534145</v>
+        <v>2780.867625214346</v>
       </c>
       <c r="O11" t="n">
-        <v>3411.968478920142</v>
+        <v>3432.469341332525</v>
       </c>
       <c r="P11" t="n">
-        <v>3930.379688302488</v>
+        <v>3954.095329841935</v>
       </c>
       <c r="Q11" t="n">
-        <v>4271.512170187406</v>
+        <v>4297.641976968516</v>
       </c>
       <c r="R11" t="n">
-        <v>4384.537131951515</v>
+        <v>4412.071240637793</v>
       </c>
       <c r="S11" t="n">
-        <v>4294.236405680714</v>
+        <v>4322.290288629825</v>
       </c>
       <c r="T11" t="n">
-        <v>4092.098744603157</v>
+        <v>4322.290288629825</v>
       </c>
       <c r="U11" t="n">
-        <v>3838.638446500193</v>
+        <v>4068.831815296627</v>
       </c>
       <c r="V11" t="n">
-        <v>3537.039300134269</v>
+        <v>3825.05384576989</v>
       </c>
       <c r="W11" t="n">
-        <v>3184.270644864155</v>
+        <v>3472.285190499776</v>
       </c>
       <c r="X11" t="n">
-        <v>2810.804886603075</v>
+        <v>3098.819432238696</v>
       </c>
       <c r="Y11" t="n">
-        <v>2420.665554627263</v>
+        <v>2708.680100262884</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5600672073323</v>
+        <v>941.5604887672215</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1070379262053</v>
+        <v>767.1074594860945</v>
       </c>
       <c r="D12" t="n">
-        <v>618.172628264954</v>
+        <v>618.1730498248432</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9351732594985</v>
+        <v>458.9355948193877</v>
       </c>
       <c r="F12" t="n">
-        <v>312.4006152863834</v>
+        <v>312.4010368462726</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5068760405562</v>
+        <v>176.5195018241764</v>
       </c>
       <c r="H12" t="n">
-        <v>90.53802005238599</v>
+        <v>90.66851294414514</v>
       </c>
       <c r="I12" t="n">
-        <v>87.6907426390303</v>
+        <v>88.24142481275587</v>
       </c>
       <c r="J12" t="n">
-        <v>224.8298743636227</v>
+        <v>226.5106427164711</v>
       </c>
       <c r="K12" t="n">
-        <v>224.8298743636227</v>
+        <v>540.9895840358474</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4110247831977</v>
+        <v>540.9895840358474</v>
       </c>
       <c r="M12" t="n">
-        <v>1255.246088283994</v>
+        <v>1107.855383276299</v>
       </c>
       <c r="N12" t="n">
-        <v>1848.41283308781</v>
+        <v>1412.233333056714</v>
       </c>
       <c r="O12" t="n">
-        <v>2368.824724854708</v>
+        <v>1935.49113657139</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.284495696307</v>
+        <v>2336.118588871478</v>
       </c>
       <c r="Q12" t="n">
-        <v>2554.284495696307</v>
+        <v>2554.008234657663</v>
       </c>
       <c r="R12" t="n">
-        <v>2554.284495696307</v>
+        <v>2554.008234657663</v>
       </c>
       <c r="S12" t="n">
-        <v>2433.564782447612</v>
+        <v>2433.515209512042</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.813636015419</v>
+        <v>2242.813254665852</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.776668157831</v>
+        <v>2014.77708971772</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.624559926089</v>
+        <v>1779.624981485978</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.387203197887</v>
+        <v>1525.387624757776</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.535702992354</v>
+        <v>1317.536124552243</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.7754042274</v>
+        <v>1109.775825787289</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>720.9428526726881</v>
+        <v>489.2520291513082</v>
       </c>
       <c r="C13" t="n">
-        <v>552.0066697447812</v>
+        <v>320.3158462234013</v>
       </c>
       <c r="D13" t="n">
-        <v>401.8900303324455</v>
+        <v>320.3158462234013</v>
       </c>
       <c r="E13" t="n">
-        <v>401.8900303324455</v>
+        <v>320.3158462234013</v>
       </c>
       <c r="F13" t="n">
-        <v>255.0000828345351</v>
+        <v>173.425898725491</v>
       </c>
       <c r="G13" t="n">
-        <v>87.6907426390303</v>
+        <v>173.425898725491</v>
       </c>
       <c r="H13" t="n">
-        <v>87.6907426390303</v>
+        <v>173.425898725491</v>
       </c>
       <c r="I13" t="n">
-        <v>87.6907426390303</v>
+        <v>88.24142481275587</v>
       </c>
       <c r="J13" t="n">
-        <v>160.0799507391991</v>
+        <v>161.339612664686</v>
       </c>
       <c r="K13" t="n">
-        <v>408.8744934474071</v>
+        <v>411.2992268950115</v>
       </c>
       <c r="L13" t="n">
-        <v>782.7722857538147</v>
+        <v>786.6879096296439</v>
       </c>
       <c r="M13" t="n">
-        <v>1187.384206496568</v>
+        <v>1192.871765290697</v>
       </c>
       <c r="N13" t="n">
-        <v>1587.809976538022</v>
+        <v>1594.832093151541</v>
       </c>
       <c r="O13" t="n">
-        <v>1941.651690445766</v>
+        <v>1950.091219580873</v>
       </c>
       <c r="P13" t="n">
-        <v>2220.903722509953</v>
+        <v>2230.556092922858</v>
       </c>
       <c r="Q13" t="n">
-        <v>2330.808274589166</v>
+        <v>2341.300353436361</v>
       </c>
       <c r="R13" t="n">
-        <v>2330.808274589166</v>
+        <v>2269.622977018579</v>
       </c>
       <c r="S13" t="n">
-        <v>2145.979960014911</v>
+        <v>2084.972971523313</v>
       </c>
       <c r="T13" t="n">
-        <v>1925.894647511662</v>
+        <v>1864.931375904324</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.485554889306</v>
+        <v>1575.850530559476</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.801066683419</v>
+        <v>1321.166042353589</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.383896646458</v>
+        <v>1031.748872316629</v>
       </c>
       <c r="X13" t="n">
-        <v>1123.383896646458</v>
+        <v>803.7593214186113</v>
       </c>
       <c r="Y13" t="n">
-        <v>902.5913175029278</v>
+        <v>582.9667422750812</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,10 +5264,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5276,13 +5276,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5303,13 +5303,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232836</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.6143379232836</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5513,16 +5513,16 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>633.992644467967</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556313</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>483.8760050556313</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>316.6799057705112</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5741,46 +5741,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311994</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7557007032925</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5944,16 +5944,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614391</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>199.7675539570408</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6452,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,52 +6695,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908938</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,22 +6935,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7026,7 +7026,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345484</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384028</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127244</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878353</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>260.8051905201119</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>91.4540303879845</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.7136436798485</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>200.0174338373926</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>29.16910356787031</v>
+        <v>86.41206863866549</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>87.05441418940205</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6261174984522</v>
       </c>
       <c r="H13" t="n">
-        <v>141.2914593394306</v>
+        <v>141.2014006975634</v>
       </c>
       <c r="I13" t="n">
-        <v>84.63724470254064</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>71.41605259498894</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>30.36558770227165</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182093</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>24.02235727160542</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.27114962944248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>103.8640922513188</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9259388694754875</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>13.66255928343608</v>
       </c>
       <c r="D22" t="n">
-        <v>147.5715612194344</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>116.6691671648112</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.003342051665</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>145.1398665102891</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1057570.995715723</v>
+        <v>1074054.812674383</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1140180.929130444</v>
+        <v>1143845.108924487</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1180731.616955719</v>
+        <v>1180731.616955718</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1200879.613708421</v>
+        <v>1180731.616955718</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>215660.9176065604</v>
+        <v>219071.3624945591</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592851</v>
@@ -26320,13 +26320,13 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>233754.1824259107</v>
+        <v>234512.2885901953</v>
       </c>
       <c r="F2" t="n">
+        <v>242143.9799070018</v>
+      </c>
+      <c r="G2" t="n">
         <v>242143.9799070019</v>
-      </c>
-      <c r="G2" t="n">
-        <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070018</v>
@@ -26341,19 +26341,19 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="N2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="P2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="P2" t="n">
-        <v>246312.5309592848</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>434675.1584941932</v>
+        <v>441243.2670902404</v>
       </c>
       <c r="F3" t="n">
-        <v>71081.82395224148</v>
+        <v>64669.46271437797</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756973</v>
+        <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
-        <v>132952.4633526851</v>
+        <v>115240.1478643171</v>
       </c>
       <c r="N3" t="n">
-        <v>18755.04135001044</v>
+        <v>36496.79768409118</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192910.926569749</v>
+        <v>199399.4920867803</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
@@ -26424,10 +26424,10 @@
         <v>140338.6838374607</v>
       </c>
       <c r="E4" t="n">
-        <v>11127.30099382394</v>
+        <v>11130.86373909412</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26439,25 +26439,25 @@
         <v>11167.03225179354</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="M4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="N4" t="n">
         <v>19157.89151488699</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>19157.891514887</v>
+      </c>
+      <c r="P4" t="n">
         <v>19157.89151488701</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>95111.54044944463</v>
+        <v>95652.51287075506</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-720385.7927586479</v>
+        <v>-723690.9231248866</v>
       </c>
       <c r="C6" t="n">
-        <v>-67962.63786400086</v>
+        <v>-67962.63786400085</v>
       </c>
       <c r="D6" t="n">
-        <v>-378092.2891239637</v>
+        <v>-378092.2891239639</v>
       </c>
       <c r="E6" t="n">
-        <v>-307159.8175115511</v>
+        <v>-313612.69046297</v>
       </c>
       <c r="F6" t="n">
-        <v>58772.59387905977</v>
+        <v>65150.21719148754</v>
       </c>
       <c r="G6" t="n">
-        <v>129854.4178313012</v>
+        <v>129819.6799058657</v>
       </c>
       <c r="H6" t="n">
-        <v>129854.4178313012</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="I6" t="n">
-        <v>129854.4178313013</v>
+        <v>129819.6799058657</v>
       </c>
       <c r="J6" t="n">
-        <v>60855.26341218709</v>
+        <v>60820.52548675144</v>
       </c>
       <c r="K6" t="n">
-        <v>129854.4178313012</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="L6" t="n">
-        <v>34471.77169373145</v>
+        <v>34437.03376829565</v>
       </c>
       <c r="M6" t="n">
-        <v>-8961.939762202703</v>
+        <v>14579.53204154836</v>
       </c>
       <c r="N6" t="n">
-        <v>105235.4822404721</v>
+        <v>87493.72590639142</v>
       </c>
       <c r="O6" t="n">
+        <v>123990.5235904824</v>
+      </c>
+      <c r="P6" t="n">
         <v>123990.5235904826</v>
-      </c>
-      <c r="P6" t="n">
-        <v>123990.5235904824</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1305.80624054044</v>
+        <v>1311.423395094523</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1096.134282987879</v>
+        <v>1103.017810159448</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>371.7413484229006</v>
+        <v>377.3585029769841</v>
       </c>
       <c r="F3" t="n">
-        <v>62.16925980123415</v>
+        <v>56.55210524715085</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>455.54945088784</v>
+        <v>462.4329780594094</v>
       </c>
       <c r="F4" t="n">
-        <v>76.57400511176979</v>
+        <v>69.69047794020025</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985324</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>455.5494508878402</v>
+        <v>462.4329780594097</v>
       </c>
       <c r="N4" t="n">
-        <v>76.57400511176979</v>
+        <v>69.69047794020025</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>455.54945088784</v>
+        <v>462.4329780594094</v>
       </c>
       <c r="N4" t="n">
-        <v>76.57400511176979</v>
+        <v>69.69047794020025</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>268.474711336956</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>340.1987280813171</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>120.8356852152387</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>102.3850521112593</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>111.4222885565772</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>160.570316521129</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>211.9896594395997</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>174.596860236385</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>180.5549891403835</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.63478035467242</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>197.3760920083082</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>62.37469790599199</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,13 +27828,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>173.5191452671044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>344.6919180062804</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>269.0101285567916</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>261.674393930563</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>188.1532173544357</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-5.510559186310598e-13</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -29047,10 +29047,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29797,10 +29797,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.607718096583367e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.249472323780658</v>
+        <v>5.272053849626221</v>
       </c>
       <c r="H11" t="n">
-        <v>53.76115843591868</v>
+        <v>53.99242148748454</v>
       </c>
       <c r="I11" t="n">
-        <v>202.380281762554</v>
+        <v>203.2508560377151</v>
       </c>
       <c r="J11" t="n">
-        <v>445.5424016404791</v>
+        <v>447.4589804197138</v>
       </c>
       <c r="K11" t="n">
-        <v>667.7525651061145</v>
+        <v>670.6250198743919</v>
       </c>
       <c r="L11" t="n">
-        <v>828.406103735017</v>
+        <v>831.9696378748905</v>
       </c>
       <c r="M11" t="n">
-        <v>921.7614071730512</v>
+        <v>925.7265255231807</v>
       </c>
       <c r="N11" t="n">
-        <v>936.6764704129931</v>
+        <v>940.7057485234313</v>
       </c>
       <c r="O11" t="n">
-        <v>884.4770299933991</v>
+        <v>888.2817630562106</v>
       </c>
       <c r="P11" t="n">
-        <v>754.880682000064</v>
+        <v>758.1279336435631</v>
       </c>
       <c r="Q11" t="n">
-        <v>566.883954404669</v>
+        <v>569.322505153824</v>
       </c>
       <c r="R11" t="n">
-        <v>329.7521658586871</v>
+        <v>331.1706526315834</v>
       </c>
       <c r="S11" t="n">
-        <v>119.6223505781519</v>
+        <v>120.1369270983576</v>
       </c>
       <c r="T11" t="n">
-        <v>22.97956509734984</v>
+        <v>23.07841572673879</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4199577859024526</v>
+        <v>0.4217643079700976</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.808715309841701</v>
+        <v>2.82079749133539</v>
       </c>
       <c r="H12" t="n">
-        <v>27.12627680820801</v>
+        <v>27.24296524526548</v>
       </c>
       <c r="I12" t="n">
-        <v>96.70357536077788</v>
+        <v>97.11956274992463</v>
       </c>
       <c r="J12" t="n">
-        <v>265.362002146053</v>
+        <v>266.5035033370862</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>455.4969352565573</v>
       </c>
       <c r="L12" t="n">
-        <v>609.8484711127782</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>711.6644010945396</v>
+        <v>714.7257503265151</v>
       </c>
       <c r="N12" t="n">
-        <v>730.5000401679957</v>
+        <v>438.7941866090049</v>
       </c>
       <c r="O12" t="n">
-        <v>668.2648219867664</v>
+        <v>671.1394803178548</v>
       </c>
       <c r="P12" t="n">
-        <v>321.3075092745313</v>
+        <v>538.6486016568431</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>360.0723253851982</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>52.1706549876298</v>
+        <v>52.39507620967267</v>
       </c>
       <c r="T12" t="n">
-        <v>11.32109372694966</v>
+        <v>11.36979339709308</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1847839019632699</v>
+        <v>0.1855787823246968</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.35473256490899</v>
+        <v>2.364861860006517</v>
       </c>
       <c r="H13" t="n">
-        <v>20.93571316800903</v>
+        <v>21.02577180987614</v>
       </c>
       <c r="I13" t="n">
-        <v>70.81323022471764</v>
+        <v>71.11784575365056</v>
       </c>
       <c r="J13" t="n">
-        <v>166.4795923390656</v>
+        <v>167.1957335024608</v>
       </c>
       <c r="K13" t="n">
-        <v>273.5771107230626</v>
+        <v>274.7539506443935</v>
       </c>
       <c r="L13" t="n">
-        <v>350.0845124229239</v>
+        <v>351.5904623504235</v>
       </c>
       <c r="M13" t="n">
-        <v>369.1150328793246</v>
+        <v>370.7028459281125</v>
       </c>
       <c r="N13" t="n">
-        <v>360.3383024101186</v>
+        <v>361.888360813543</v>
       </c>
       <c r="O13" t="n">
-        <v>332.8307447200453</v>
+        <v>334.2624745398304</v>
       </c>
       <c r="P13" t="n">
-        <v>284.7942003959017</v>
+        <v>286.0192925956972</v>
       </c>
       <c r="Q13" t="n">
-        <v>197.1767423216064</v>
+        <v>198.024932659273</v>
       </c>
       <c r="R13" t="n">
-        <v>105.8773387821805</v>
+        <v>106.3327887235657</v>
       </c>
       <c r="S13" t="n">
-        <v>41.03656660845937</v>
+        <v>41.21309259665902</v>
       </c>
       <c r="T13" t="n">
-        <v>10.06113005006568</v>
+        <v>10.10440976548239</v>
       </c>
       <c r="U13" t="n">
-        <v>0.128439958085945</v>
+        <v>0.1289924650912647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>357.9244589488883</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>452.8027404478649</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250135</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313201</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>264.4964971137928</v>
+        <v>266.4130758930276</v>
       </c>
       <c r="K11" t="n">
-        <v>447.662714061134</v>
+        <v>450.5351688294114</v>
       </c>
       <c r="L11" t="n">
-        <v>592.6396887650299</v>
+        <v>596.2032229049032</v>
       </c>
       <c r="M11" t="n">
-        <v>691.4151739457785</v>
+        <v>695.380292295908</v>
       </c>
       <c r="N11" t="n">
-        <v>707.2634068164023</v>
+        <v>711.2926849268404</v>
       </c>
       <c r="O11" t="n">
-        <v>654.3788185717124</v>
+        <v>658.1835516345238</v>
       </c>
       <c r="P11" t="n">
-        <v>523.6476862447944</v>
+        <v>526.8949378882935</v>
       </c>
       <c r="Q11" t="n">
-        <v>344.5782645302195</v>
+        <v>347.0168152793744</v>
       </c>
       <c r="R11" t="n">
-        <v>114.166628044555</v>
+        <v>115.5851148174513</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>138.5243754793863</v>
+        <v>139.6658766704195</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>317.6554962821983</v>
       </c>
       <c r="L12" t="n">
-        <v>471.294091332904</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>569.5303671725212</v>
+        <v>572.5917164044968</v>
       </c>
       <c r="N12" t="n">
-        <v>599.1583280846625</v>
+        <v>307.4524745256716</v>
       </c>
       <c r="O12" t="n">
-        <v>525.6685775423219</v>
+        <v>528.5432358734104</v>
       </c>
       <c r="P12" t="n">
-        <v>187.3331018602011</v>
+        <v>404.6741942425128</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>220.0905512991767</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.12041222239279</v>
+        <v>73.83655338578799</v>
       </c>
       <c r="K13" t="n">
-        <v>251.3076188971797</v>
+        <v>252.4844588185107</v>
       </c>
       <c r="L13" t="n">
-        <v>377.67453768324</v>
+        <v>379.1804876107396</v>
       </c>
       <c r="M13" t="n">
-        <v>408.6989098411652</v>
+        <v>410.2867228899531</v>
       </c>
       <c r="N13" t="n">
-        <v>404.4704747893472</v>
+        <v>406.0205331927716</v>
       </c>
       <c r="O13" t="n">
-        <v>357.415872634085</v>
+        <v>358.8476024538701</v>
       </c>
       <c r="P13" t="n">
-        <v>282.0727596607952</v>
+        <v>283.2978518605907</v>
       </c>
       <c r="Q13" t="n">
-        <v>111.014699069912</v>
+        <v>111.8628894075786</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>226.582746865555</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>310.2064960034205</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
